--- a/natmiOut/OldD2/LR-pairs_lrc2p/Wnt5b-Fzd8.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Wnt5b-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Wnt5b</t>
   </si>
   <si>
@@ -88,10 +91,13 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.359302779767229</v>
+        <v>0.373344</v>
       </c>
       <c r="H2">
-        <v>0.359302779767229</v>
+        <v>1.120032</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.7330560889695228</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.8046553730764257</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.52477890760023</v>
+        <v>2.569008</v>
       </c>
       <c r="N2">
-        <v>2.52477890760023</v>
+        <v>5.138016</v>
       </c>
       <c r="O2">
-        <v>0.2790649919610129</v>
+        <v>0.2577238367773512</v>
       </c>
       <c r="P2">
-        <v>0.2790649919610129</v>
+        <v>0.2133397199412101</v>
       </c>
       <c r="Q2">
-        <v>0.9071600797984305</v>
+        <v>0.959123722752</v>
       </c>
       <c r="R2">
-        <v>0.9071600797984305</v>
+        <v>5.754742336512</v>
       </c>
       <c r="S2">
-        <v>0.2790649919610129</v>
+        <v>0.1889260278222248</v>
       </c>
       <c r="T2">
-        <v>0.2790649919610129</v>
+        <v>0.1716649519413146</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.359302779767229</v>
+        <v>0.373344</v>
       </c>
       <c r="H3">
-        <v>0.359302779767229</v>
+        <v>1.120032</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.7330560889695228</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.8046553730764257</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.91974862561398</v>
+        <v>2.043481333333333</v>
       </c>
       <c r="N3">
-        <v>1.91974862561398</v>
+        <v>6.130444</v>
       </c>
       <c r="O3">
-        <v>0.212190712288285</v>
+        <v>0.2050028063787906</v>
       </c>
       <c r="P3">
-        <v>0.212190712288285</v>
+        <v>0.2545471259870097</v>
       </c>
       <c r="Q3">
-        <v>0.6897710176374204</v>
+        <v>0.7629214949119999</v>
       </c>
       <c r="R3">
-        <v>0.6897710176374204</v>
+        <v>6.866293454207999</v>
       </c>
       <c r="S3">
-        <v>0.212190712288285</v>
+        <v>0.1502785554718125</v>
       </c>
       <c r="T3">
-        <v>0.212190712288285</v>
+        <v>0.2048227126266092</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.359302779767229</v>
+        <v>0.373344</v>
       </c>
       <c r="H4">
-        <v>0.359302779767229</v>
+        <v>1.120032</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.7330560889695228</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.8046553730764257</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.96309843960945</v>
+        <v>0.01206</v>
       </c>
       <c r="N4">
-        <v>1.96309843960945</v>
+        <v>0.03618</v>
       </c>
       <c r="O4">
-        <v>0.2169821874775544</v>
+        <v>0.001209863679496076</v>
       </c>
       <c r="P4">
-        <v>0.2169821874775544</v>
+        <v>0.001502259056311421</v>
       </c>
       <c r="Q4">
-        <v>0.7053467263083851</v>
+        <v>0.00450252864</v>
       </c>
       <c r="R4">
-        <v>0.7053467263083851</v>
+        <v>0.04052275775999999</v>
       </c>
       <c r="S4">
-        <v>0.2169821874775544</v>
+        <v>0.0008868979370776698</v>
       </c>
       <c r="T4">
-        <v>0.2169821874775544</v>
+        <v>0.001208800821413705</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +714,557 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.373344</v>
+      </c>
+      <c r="H5">
+        <v>1.120032</v>
+      </c>
+      <c r="I5">
+        <v>0.7330560889695228</v>
+      </c>
+      <c r="J5">
+        <v>0.8046553730764257</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.03685233333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.110557</v>
+      </c>
+      <c r="O5">
+        <v>0.003697039768215801</v>
+      </c>
+      <c r="P5">
+        <v>0.004590526658060303</v>
+      </c>
+      <c r="Q5">
+        <v>0.013758597536</v>
+      </c>
+      <c r="R5">
+        <v>0.123827377824</v>
+      </c>
+      <c r="S5">
+        <v>0.002710137513253066</v>
+      </c>
+      <c r="T5">
+        <v>0.00369379194065879</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.373344</v>
+      </c>
+      <c r="H6">
+        <v>1.120032</v>
+      </c>
+      <c r="I6">
+        <v>0.7330560889695228</v>
+      </c>
+      <c r="J6">
+        <v>0.8046553730764257</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.055205</v>
+      </c>
+      <c r="N6">
+        <v>6.165615</v>
+      </c>
+      <c r="O6">
+        <v>0.206178928973361</v>
+      </c>
+      <c r="P6">
+        <v>0.2560074895378535</v>
+      </c>
+      <c r="Q6">
+        <v>0.7672984555199999</v>
+      </c>
+      <c r="R6">
+        <v>6.90568609968</v>
+      </c>
+      <c r="S6">
+        <v>0.151140719301137</v>
+      </c>
+      <c r="T6">
+        <v>0.2059978020044406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.373344</v>
+      </c>
+      <c r="H7">
+        <v>1.120032</v>
+      </c>
+      <c r="I7">
+        <v>0.7330560889695228</v>
+      </c>
+      <c r="J7">
+        <v>0.8046553730764257</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.2514585</v>
+      </c>
+      <c r="N7">
+        <v>6.502917</v>
+      </c>
+      <c r="O7">
+        <v>0.3261875244227855</v>
+      </c>
+      <c r="P7">
+        <v>0.2700128788195549</v>
+      </c>
+      <c r="Q7">
+        <v>1.213912522224</v>
+      </c>
+      <c r="R7">
+        <v>7.283475133343999</v>
+      </c>
+      <c r="S7">
+        <v>0.2391137509240178</v>
+      </c>
+      <c r="T7">
+        <v>0.2172673137419887</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.135954</v>
+      </c>
+      <c r="H8">
+        <v>0.271908</v>
+      </c>
+      <c r="I8">
+        <v>0.2669439110304773</v>
+      </c>
+      <c r="J8">
+        <v>0.1953446269235743</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.569008</v>
+      </c>
+      <c r="N8">
+        <v>5.138016</v>
+      </c>
+      <c r="O8">
+        <v>0.2577238367773512</v>
+      </c>
+      <c r="P8">
+        <v>0.2133397199412101</v>
+      </c>
+      <c r="Q8">
+        <v>0.349266913632</v>
+      </c>
+      <c r="R8">
+        <v>1.397067654528</v>
+      </c>
+      <c r="S8">
+        <v>0.06879780895512649</v>
+      </c>
+      <c r="T8">
+        <v>0.04167476799989551</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.135954</v>
+      </c>
+      <c r="H9">
+        <v>0.271908</v>
+      </c>
+      <c r="I9">
+        <v>0.2669439110304773</v>
+      </c>
+      <c r="J9">
+        <v>0.1953446269235743</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.043481333333333</v>
+      </c>
+      <c r="N9">
+        <v>6.130444</v>
+      </c>
+      <c r="O9">
+        <v>0.2050028063787906</v>
+      </c>
+      <c r="P9">
+        <v>0.2545471259870097</v>
+      </c>
+      <c r="Q9">
+        <v>0.277819461192</v>
+      </c>
+      <c r="R9">
+        <v>1.666916767152</v>
+      </c>
+      <c r="S9">
+        <v>0.05472425090697802</v>
+      </c>
+      <c r="T9">
+        <v>0.04972441336040047</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.359302779767229</v>
-      </c>
-      <c r="H5">
-        <v>0.359302779767229</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>2.63965326438341</v>
-      </c>
-      <c r="N5">
-        <v>2.63965326438341</v>
-      </c>
-      <c r="O5">
-        <v>0.2917621082731477</v>
-      </c>
-      <c r="P5">
-        <v>0.2917621082731477</v>
-      </c>
-      <c r="Q5">
-        <v>0.9484347555145994</v>
-      </c>
-      <c r="R5">
-        <v>0.9484347555145994</v>
-      </c>
-      <c r="S5">
-        <v>0.2917621082731477</v>
-      </c>
-      <c r="T5">
-        <v>0.2917621082731477</v>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.135954</v>
+      </c>
+      <c r="H10">
+        <v>0.271908</v>
+      </c>
+      <c r="I10">
+        <v>0.2669439110304773</v>
+      </c>
+      <c r="J10">
+        <v>0.1953446269235743</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.01206</v>
+      </c>
+      <c r="N10">
+        <v>0.03618</v>
+      </c>
+      <c r="O10">
+        <v>0.001209863679496076</v>
+      </c>
+      <c r="P10">
+        <v>0.001502259056311421</v>
+      </c>
+      <c r="Q10">
+        <v>0.00163960524</v>
+      </c>
+      <c r="R10">
+        <v>0.009837631439999998</v>
+      </c>
+      <c r="S10">
+        <v>0.0003229657424184064</v>
+      </c>
+      <c r="T10">
+        <v>0.0002934582348977153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.135954</v>
+      </c>
+      <c r="H11">
+        <v>0.271908</v>
+      </c>
+      <c r="I11">
+        <v>0.2669439110304773</v>
+      </c>
+      <c r="J11">
+        <v>0.1953446269235743</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.03685233333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.110557</v>
+      </c>
+      <c r="O11">
+        <v>0.003697039768215801</v>
+      </c>
+      <c r="P11">
+        <v>0.004590526658060303</v>
+      </c>
+      <c r="Q11">
+        <v>0.005010222125999999</v>
+      </c>
+      <c r="R11">
+        <v>0.030061332756</v>
+      </c>
+      <c r="S11">
+        <v>0.0009869022549627352</v>
+      </c>
+      <c r="T11">
+        <v>0.0008967347174015122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.135954</v>
+      </c>
+      <c r="H12">
+        <v>0.271908</v>
+      </c>
+      <c r="I12">
+        <v>0.2669439110304773</v>
+      </c>
+      <c r="J12">
+        <v>0.1953446269235743</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.055205</v>
+      </c>
+      <c r="N12">
+        <v>6.165615</v>
+      </c>
+      <c r="O12">
+        <v>0.206178928973361</v>
+      </c>
+      <c r="P12">
+        <v>0.2560074895378535</v>
+      </c>
+      <c r="Q12">
+        <v>0.27941334057</v>
+      </c>
+      <c r="R12">
+        <v>1.67648004342</v>
+      </c>
+      <c r="S12">
+        <v>0.05503820967222396</v>
+      </c>
+      <c r="T12">
+        <v>0.05000968753341285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.135954</v>
+      </c>
+      <c r="H13">
+        <v>0.271908</v>
+      </c>
+      <c r="I13">
+        <v>0.2669439110304773</v>
+      </c>
+      <c r="J13">
+        <v>0.1953446269235743</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.2514585</v>
+      </c>
+      <c r="N13">
+        <v>6.502917</v>
+      </c>
+      <c r="O13">
+        <v>0.3261875244227855</v>
+      </c>
+      <c r="P13">
+        <v>0.2700128788195549</v>
+      </c>
+      <c r="Q13">
+        <v>0.442048788909</v>
+      </c>
+      <c r="R13">
+        <v>1.768195155636</v>
+      </c>
+      <c r="S13">
+        <v>0.08707377349876767</v>
+      </c>
+      <c r="T13">
+        <v>0.05274556507756623</v>
       </c>
     </row>
   </sheetData>
